--- a/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
+++ b/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
@@ -14,36 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>instances</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>lower_bound_f</t>
-  </si>
-  <si>
-    <t>upper_bound_f</t>
-  </si>
-  <si>
-    <t>mean_f</t>
-  </si>
-  <si>
-    <t>deviation_f</t>
-  </si>
-  <si>
-    <t>lower_bound_t</t>
-  </si>
-  <si>
-    <t>upper_bound_t</t>
-  </si>
-  <si>
-    <t>mean_t</t>
-  </si>
-  <si>
-    <t>deviation_t</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Psize</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>ubf</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>dpf</t>
+  </si>
+  <si>
+    <t>lbt</t>
+  </si>
+  <si>
+    <t>ubt</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>dpt</t>
   </si>
   <si>
     <t>(20 X 5)</t>
@@ -76,34 +79,34 @@
     <t>(200 X 10)</t>
   </si>
   <si>
-    <t>[6, 5, 7, 3, 17, 8, 16, 15, 4, 19, 12, 2, 14, 11, 13, 9, 10, 1, 18, 20]</t>
-  </si>
-  <si>
-    <t>[5, 18, 12, 9, 4, 6, 14, 17, 19, 15, 13, 20, 11, 3, 7, 2, 8, 10, 1, 16]</t>
-  </si>
-  <si>
-    <t>[8, 16, 15, 18, 6, 20, 4, 11, 14, 17, 12, 13, 10, 9, 5, 7, 19, 2, 3, 1]</t>
-  </si>
-  <si>
-    <t>[31, 41, 50, 24, 48, 22, 29, 34, 1, 11, 6, 27, 10, 36, 39, 14, 15, 25, 4, 42, 38, 40, 21, 19, 20, 28, 2, 17, 23, 45, 18, 9, 13, 47, 49, 43, 26, 30, 3, 7, 8, 32, 12, 46, 44, 35, 5, 16, 33, 37]</t>
-  </si>
-  <si>
-    <t>[36, 48, 20, 6, 3, 33, 45, 8, 43, 49, 24, 30, 44, 14, 10, 22, 4, 28, 13, 34, 26, 16, 29, 11, 42, 46, 31, 19, 37, 32, 40, 39, 17, 5, 18, 35, 2, 41, 25, 7, 38, 9, 47, 1, 27, 21, 15, 50, 12, 23]</t>
-  </si>
-  <si>
-    <t>[35, 17, 20, 12, 25, 50, 1, 38, 5, 2, 9, 31, 43, 34, 45, 10, 6, 14, 41, 29, 28, 15, 7, 39, 46, 40, 16, 23, 8, 27, 22, 30, 49, 4, 24, 36, 42, 26, 33, 3, 44, 47, 48, 11, 19, 21, 13, 18, 37, 32]</t>
-  </si>
-  <si>
-    <t>[52, 85, 45, 70, 48, 84, 42, 28, 10, 16, 72, 18, 81, 2, 33, 65, 26, 57, 50, 64, 49, 38, 86, 9, 24, 55, 34, 77, 93, 6, 89, 31, 60, 100, 83, 96, 58, 66, 25, 47, 40, 54, 13, 78, 7, 61, 14, 44, 37, 82, 75, 68, 30, 90, 39, 4, 43, 8, 97, 41, 53, 36, 11, 5, 51, 56, 62, 69, 59, 1, 94, 12, 27, 15, 80, 95, 74, 63, 3, 19, 29, 99, 17, 32, 87, 67, 91, 73, 35, 46, 79, 22, 20, 21, 98, 71, 88, 23, 92, 76]</t>
-  </si>
-  <si>
-    <t>[15, 60, 37, 83, 50, 77, 12, 73, 4, 20, 24, 40, 42, 85, 17, 67, 13, 84, 21, 96, 65, 6, 16, 2, 8, 53, 74, 76, 81, 46, 39, 93, 51, 10, 89, 9, 38, 34, 88, 43, 5, 35, 47, 80, 14, 90, 99, 30, 94, 72, 95, 87, 100, 55, 22, 27, 91, 61, 75, 66, 82, 3, 92, 49, 28, 7, 62, 70, 98, 79, 69, 58, 97, 32, 71, 23, 86, 45, 36, 1, 19, 44, 78, 59, 48, 57, 68, 64, 29, 56, 33, 63, 31, 26, 41, 11, 54, 25, 18, 52]</t>
-  </si>
-  <si>
-    <t>[41, 78, 25, 59, 65, 58, 55, 4, 5, 27, 63, 86, 93, 33, 22, 10, 14, 31, 79, 32, 46, 70, 39, 54, 95, 16, 87, 49, 45, 3, 36, 68, 97, 1, 8, 20, 26, 82, 24, 2, 66, 85, 80, 74, 76, 43, 81, 7, 6, 40, 23, 52, 98, 57, 44, 61, 73, 21, 9, 64, 62, 94, 91, 17, 38, 71, 28, 19, 90, 56, 48, 88, 12, 89, 96, 83, 13, 34, 11, 53, 35, 84, 75, 51, 42, 60, 18, 100, 37, 50, 99, 69, 67, 72, 15, 30, 29, 47, 77, 92]</t>
-  </si>
-  <si>
-    <t>[34, 41, 190, 109, 11, 36, 33, 57, 6, 188, 100, 154, 38, 80, 137, 198, 110, 175, 114, 136, 187, 151, 96, 142, 192, 99, 44, 31, 85, 176, 155, 77, 82, 162, 152, 135, 174, 165, 4, 1, 131, 128, 143, 95, 12, 164, 180, 3, 148, 113, 120, 42, 117, 58, 20, 53, 184, 153, 66, 183, 146, 189, 166, 79, 92, 112, 94, 122, 196, 159, 185, 35, 163, 132, 181, 119, 48, 182, 45, 169, 173, 103, 59, 93, 102, 108, 55, 172, 160, 101, 105, 60, 88, 19, 5, 178, 43, 106, 28, 29, 2, 158, 84, 25, 46, 39, 72, 78, 121, 69, 87, 123, 116, 129, 56, 37, 81, 133, 70, 76, 18, 140, 167, 13, 86, 124, 126, 149, 32, 73, 89, 98, 26, 195, 156, 144, 7, 197, 171, 138, 161, 61, 65, 193, 40, 62, 107, 179, 90, 130, 125, 134, 22, 118, 150, 50, 16, 74, 17, 30, 191, 200, 168, 52, 127, 186, 8, 147, 14, 23, 71, 64, 91, 194, 75, 54, 21, 68, 9, 67, 63, 170, 139, 27, 24, 115, 157, 15, 83, 104, 141, 47, 145, 111, 177, 49, 51, 97, 10, 199]</t>
+    <t>[3, 15, 8, 4, 1, 17, 5, 19, 11, 13, 6, 14, 9, 12, 7, 18, 2, 20, 16, 10]</t>
+  </si>
+  <si>
+    <t>[9, 18, 6, 19, 17, 20, 14, 5, 10, 13, 4, 7, 8, 12, 15, 3, 2, 11, 16, 1]</t>
+  </si>
+  <si>
+    <t>[8, 18, 13, 15, 11, 6, 12, 7, 14, 10, 5, 19, 16, 9, 1, 2, 20, 4, 3, 17]</t>
+  </si>
+  <si>
+    <t>[3, 32, 39, 48, 4, 45, 22, 24, 26, 43, 10, 44, 16, 34, 42, 7, 35, 41, 20, 11, 28, 6, 1, 31, 19, 14, 5, 8, 9, 29, 13, 38, 12, 30, 2, 40, 18, 33, 46, 25, 47, 50, 37, 15, 23, 17, 27, 49, 21, 36]</t>
+  </si>
+  <si>
+    <t>[22, 32, 29, 20, 14, 40, 28, 49, 39, 34, 8, 44, 46, 15, 42, 48, 9, 36, 38, 3, 2, 5, 12, 24, 17, 19, 43, 13, 6, 47, 26, 25, 35, 16, 41, 4, 37, 50, 33, 10, 31, 21, 23, 27, 7, 18, 11, 1, 30, 45]</t>
+  </si>
+  <si>
+    <t>[12, 39, 6, 33, 41, 20, 31, 29, 28, 35, 21, 5, 47, 8, 26, 25, 43, 45, 48, 14, 17, 37, 40, 32, 16, 2, 10, 7, 38, 24, 49, 1, 15, 27, 44, 46, 11, 4, 36, 13, 9, 22, 30, 19, 42, 50, 23, 34, 18, 3]</t>
+  </si>
+  <si>
+    <t>[59, 16, 96, 73, 11, 40, 49, 74, 4, 26, 95, 99, 29, 19, 18, 1, 6, 25, 48, 41, 8, 42, 27, 90, 70, 13, 65, 93, 45, 88, 57, 24, 30, 68, 22, 10, 78, 38, 63, 92, 64, 75, 100, 2, 17, 97, 77, 61, 43, 60, 98, 72, 81, 62, 69, 12, 51, 55, 83, 33, 46, 44, 67, 54, 34, 94, 14, 35, 47, 56, 31, 89, 32, 39, 20, 5, 7, 36, 23, 71, 50, 76, 58, 3, 9, 86, 79, 87, 52, 53, 15, 21, 28, 85, 84, 37, 82, 91, 80, 66]</t>
+  </si>
+  <si>
+    <t>[5, 91, 97, 67, 10, 41, 31, 35, 24, 68, 3, 48, 65, 12, 98, 63, 33, 29, 46, 90, 89, 74, 55, 36, 2, 40, 42, 26, 7, 78, 49, 70, 57, 58, 60, 8, 85, 50, 22, 53, 75, 87, 88, 30, 62, 9, 64, 92, 54, 86, 72, 47, 94, 18, 69, 66, 81, 84, 19, 13, 52, 44, 15, 80, 25, 99, 20, 73, 21, 39, 79, 1, 34, 45, 76, 82, 95, 4, 77, 28, 83, 23, 93, 96, 56, 51, 71, 11, 38, 43, 16, 100, 6, 17, 27, 32, 37, 14, 61, 59]</t>
+  </si>
+  <si>
+    <t>[22, 47, 46, 35, 62, 91, 41, 31, 48, 93, 3, 100, 83, 60, 16, 81, 1, 61, 96, 44, 23, 21, 89, 10, 79, 30, 14, 12, 65, 98, 5, 15, 52, 51, 4, 8, 78, 71, 28, 27, 33, 42, 67, 18, 11, 90, 95, 72, 56, 2, 88, 64, 24, 84, 87, 43, 74, 6, 97, 68, 40, 57, 55, 7, 99, 25, 36, 58, 73, 9, 53, 50, 86, 59, 13, 20, 77, 37, 19, 39, 80, 75, 94, 29, 17, 66, 38, 70, 34, 85, 54, 49, 69, 92, 82, 63, 45, 26, 32, 76]</t>
+  </si>
+  <si>
+    <t>[85, 44, 84, 124, 28, 172, 93, 71, 19, 135, 26, 143, 103, 70, 166, 115, 91, 130, 49, 181, 110, 162, 77, 148, 127, 194, 33, 123, 108, 89, 40, 75, 153, 174, 6, 63, 29, 66, 24, 97, 95, 111, 53, 167, 163, 13, 177, 74, 42, 23, 165, 151, 170, 178, 7, 64, 86, 83, 137, 147, 134, 92, 138, 132, 131, 67, 17, 34, 2, 184, 156, 119, 16, 139, 25, 57, 190, 20, 62, 54, 193, 60, 59, 14, 125, 52, 47, 22, 154, 8, 114, 113, 199, 45, 4, 43, 159, 105, 100, 142, 140, 56, 186, 81, 160, 198, 73, 157, 48, 12, 99, 117, 94, 80, 112, 200, 41, 197, 180, 118, 164, 87, 152, 68, 155, 182, 191, 120, 32, 79, 187, 188, 18, 107, 196, 27, 150, 176, 129, 168, 35, 30, 11, 88, 145, 101, 122, 61, 175, 158, 96, 98, 76, 39, 72, 189, 51, 149, 109, 126, 161, 173, 136, 128, 171, 65, 116, 9, 3, 195, 106, 37, 10, 144, 102, 58, 5, 141, 31, 146, 55, 192, 90, 69, 36, 82, 21, 169, 38, 104, 179, 46, 121, 15, 185, 183, 50, 78, 1, 133]</t>
   </si>
 </sst>
 </file>
@@ -461,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,355 +501,388 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1324</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1377</v>
+        <v>1339</v>
       </c>
       <c r="F2">
-        <v>1352.9</v>
+        <v>1370</v>
       </c>
       <c r="G2">
-        <v>17.45537</v>
+        <v>1356.4</v>
       </c>
       <c r="H2">
-        <v>0.02631</v>
+        <v>10.46136</v>
       </c>
       <c r="I2">
-        <v>0.06232</v>
+        <v>0.02586</v>
       </c>
       <c r="J2">
-        <v>0.03663</v>
+        <v>0.05069</v>
       </c>
       <c r="K2">
-        <v>0.01007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.03714</v>
+      </c>
+      <c r="L2">
+        <v>0.00776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>1748</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1823</v>
+        <v>1756</v>
       </c>
       <c r="F3">
-        <v>1794.2</v>
+        <v>1824</v>
       </c>
       <c r="G3">
-        <v>23.60424</v>
+        <v>1793</v>
       </c>
       <c r="H3">
-        <v>0.04159</v>
+        <v>20.05492</v>
       </c>
       <c r="I3">
-        <v>0.10156</v>
+        <v>0.04141</v>
       </c>
       <c r="J3">
-        <v>0.07209</v>
+        <v>0.08833000000000001</v>
       </c>
       <c r="K3">
-        <v>0.01706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.06091</v>
+      </c>
+      <c r="L3">
+        <v>0.01544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>2499</v>
       </c>
-      <c r="E4">
-        <v>2556</v>
-      </c>
       <c r="F4">
-        <v>2522</v>
+        <v>2543</v>
       </c>
       <c r="G4">
-        <v>17.96664</v>
+        <v>2518.7</v>
       </c>
       <c r="H4">
-        <v>0.0737</v>
+        <v>13.22157</v>
       </c>
       <c r="I4">
-        <v>0.17031</v>
+        <v>0.07317</v>
       </c>
       <c r="J4">
-        <v>0.11307</v>
+        <v>0.15647</v>
       </c>
       <c r="K4">
-        <v>0.03086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.09739</v>
+      </c>
+      <c r="L4">
+        <v>0.02938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>2810</v>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2915</v>
+        <v>2845</v>
       </c>
       <c r="F5">
-        <v>2862.3</v>
+        <v>2909</v>
       </c>
       <c r="G5">
-        <v>25.96941</v>
+        <v>2870.3</v>
       </c>
       <c r="H5">
-        <v>0.05722</v>
+        <v>20.61577</v>
       </c>
       <c r="I5">
-        <v>0.15553</v>
+        <v>0.05755</v>
       </c>
       <c r="J5">
-        <v>0.09674000000000001</v>
+        <v>0.19922</v>
       </c>
       <c r="K5">
-        <v>0.03753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.09457</v>
+      </c>
+      <c r="L5">
+        <v>0.04088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>3456</v>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3558</v>
+        <v>3467</v>
       </c>
       <c r="F6">
-        <v>3517.1</v>
+        <v>3555</v>
       </c>
       <c r="G6">
-        <v>30.8365</v>
+        <v>3509.5</v>
       </c>
       <c r="H6">
-        <v>0.09301</v>
+        <v>27.15971</v>
       </c>
       <c r="I6">
-        <v>0.28</v>
+        <v>0.09274</v>
       </c>
       <c r="J6">
-        <v>0.15693</v>
+        <v>0.21647</v>
       </c>
       <c r="K6">
-        <v>0.06226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.13608</v>
+      </c>
+      <c r="L6">
+        <v>0.0386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>4463</v>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>4590</v>
+        <v>4454</v>
       </c>
       <c r="F7">
-        <v>4557</v>
+        <v>4594</v>
       </c>
       <c r="G7">
-        <v>35.08276</v>
+        <v>4548.9</v>
       </c>
       <c r="H7">
-        <v>0.1691</v>
+        <v>39.91854</v>
       </c>
       <c r="I7">
-        <v>0.38866</v>
+        <v>0.16541</v>
       </c>
       <c r="J7">
-        <v>0.2581</v>
+        <v>0.5809800000000001</v>
       </c>
       <c r="K7">
-        <v>0.06193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.26541</v>
+      </c>
+      <c r="L7">
+        <v>0.11976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>5686</v>
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>5785</v>
+        <v>5659</v>
       </c>
       <c r="F8">
-        <v>5730.6</v>
+        <v>5805</v>
       </c>
       <c r="G8">
-        <v>27.98285</v>
+        <v>5735.2</v>
       </c>
       <c r="H8">
-        <v>0.10777</v>
+        <v>41.33957</v>
       </c>
       <c r="I8">
-        <v>0.27284</v>
+        <v>0.10687</v>
       </c>
       <c r="J8">
-        <v>0.17015</v>
+        <v>0.22874</v>
       </c>
       <c r="K8">
-        <v>0.05301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.1684</v>
+      </c>
+      <c r="L8">
+        <v>0.04085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>6333</v>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>6523</v>
+        <v>6450</v>
       </c>
       <c r="F9">
-        <v>6465.3</v>
+        <v>6539</v>
       </c>
       <c r="G9">
-        <v>54.90364</v>
+        <v>6489.1</v>
       </c>
       <c r="H9">
-        <v>0.1758</v>
+        <v>29.22482</v>
       </c>
       <c r="I9">
-        <v>0.46599</v>
+        <v>0.22186</v>
       </c>
       <c r="J9">
-        <v>0.30145</v>
+        <v>0.64014</v>
       </c>
       <c r="K9">
-        <v>0.09178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.3037</v>
+      </c>
+      <c r="L9">
+        <v>0.11625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>7383</v>
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>7431</v>
+        <v>7267</v>
       </c>
       <c r="F10">
-        <v>7401.3</v>
+        <v>7433</v>
       </c>
       <c r="G10">
-        <v>16.30368</v>
+        <v>7363.3</v>
       </c>
       <c r="H10">
-        <v>0.31954</v>
+        <v>51.90963</v>
       </c>
       <c r="I10">
-        <v>1.01344</v>
+        <v>0.31728</v>
       </c>
       <c r="J10">
-        <v>0.47075</v>
+        <v>0.91704</v>
       </c>
       <c r="K10">
-        <v>0.21312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.56482</v>
+      </c>
+      <c r="L10">
+        <v>0.18813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>11656</v>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>11798</v>
+        <v>11695</v>
       </c>
       <c r="F11">
-        <v>11726.8</v>
+        <v>11818</v>
       </c>
       <c r="G11">
-        <v>48.54235</v>
+        <v>11757.5</v>
       </c>
       <c r="H11">
-        <v>0.35499</v>
+        <v>39.4924</v>
       </c>
       <c r="I11">
-        <v>1.02232</v>
+        <v>0.34006</v>
       </c>
       <c r="J11">
-        <v>0.53027</v>
+        <v>0.73146</v>
       </c>
       <c r="K11">
-        <v>0.20783</v>
+        <v>0.47815</v>
+      </c>
+      <c r="L11">
+        <v>0.11837</v>
       </c>
     </row>
   </sheetData>

--- a/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
+++ b/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>char</t>
+    <t xml:space="preserve">j X m </t>
   </si>
   <si>
     <t>Psize</t>
@@ -79,34 +79,34 @@
     <t>(200 X 10)</t>
   </si>
   <si>
-    <t>[3, 15, 8, 4, 1, 17, 5, 19, 11, 13, 6, 14, 9, 12, 7, 18, 2, 20, 16, 10]</t>
-  </si>
-  <si>
-    <t>[9, 18, 6, 19, 17, 20, 14, 5, 10, 13, 4, 7, 8, 12, 15, 3, 2, 11, 16, 1]</t>
-  </si>
-  <si>
-    <t>[8, 18, 13, 15, 11, 6, 12, 7, 14, 10, 5, 19, 16, 9, 1, 2, 20, 4, 3, 17]</t>
-  </si>
-  <si>
-    <t>[3, 32, 39, 48, 4, 45, 22, 24, 26, 43, 10, 44, 16, 34, 42, 7, 35, 41, 20, 11, 28, 6, 1, 31, 19, 14, 5, 8, 9, 29, 13, 38, 12, 30, 2, 40, 18, 33, 46, 25, 47, 50, 37, 15, 23, 17, 27, 49, 21, 36]</t>
-  </si>
-  <si>
-    <t>[22, 32, 29, 20, 14, 40, 28, 49, 39, 34, 8, 44, 46, 15, 42, 48, 9, 36, 38, 3, 2, 5, 12, 24, 17, 19, 43, 13, 6, 47, 26, 25, 35, 16, 41, 4, 37, 50, 33, 10, 31, 21, 23, 27, 7, 18, 11, 1, 30, 45]</t>
-  </si>
-  <si>
-    <t>[12, 39, 6, 33, 41, 20, 31, 29, 28, 35, 21, 5, 47, 8, 26, 25, 43, 45, 48, 14, 17, 37, 40, 32, 16, 2, 10, 7, 38, 24, 49, 1, 15, 27, 44, 46, 11, 4, 36, 13, 9, 22, 30, 19, 42, 50, 23, 34, 18, 3]</t>
-  </si>
-  <si>
-    <t>[59, 16, 96, 73, 11, 40, 49, 74, 4, 26, 95, 99, 29, 19, 18, 1, 6, 25, 48, 41, 8, 42, 27, 90, 70, 13, 65, 93, 45, 88, 57, 24, 30, 68, 22, 10, 78, 38, 63, 92, 64, 75, 100, 2, 17, 97, 77, 61, 43, 60, 98, 72, 81, 62, 69, 12, 51, 55, 83, 33, 46, 44, 67, 54, 34, 94, 14, 35, 47, 56, 31, 89, 32, 39, 20, 5, 7, 36, 23, 71, 50, 76, 58, 3, 9, 86, 79, 87, 52, 53, 15, 21, 28, 85, 84, 37, 82, 91, 80, 66]</t>
-  </si>
-  <si>
-    <t>[5, 91, 97, 67, 10, 41, 31, 35, 24, 68, 3, 48, 65, 12, 98, 63, 33, 29, 46, 90, 89, 74, 55, 36, 2, 40, 42, 26, 7, 78, 49, 70, 57, 58, 60, 8, 85, 50, 22, 53, 75, 87, 88, 30, 62, 9, 64, 92, 54, 86, 72, 47, 94, 18, 69, 66, 81, 84, 19, 13, 52, 44, 15, 80, 25, 99, 20, 73, 21, 39, 79, 1, 34, 45, 76, 82, 95, 4, 77, 28, 83, 23, 93, 96, 56, 51, 71, 11, 38, 43, 16, 100, 6, 17, 27, 32, 37, 14, 61, 59]</t>
-  </si>
-  <si>
-    <t>[22, 47, 46, 35, 62, 91, 41, 31, 48, 93, 3, 100, 83, 60, 16, 81, 1, 61, 96, 44, 23, 21, 89, 10, 79, 30, 14, 12, 65, 98, 5, 15, 52, 51, 4, 8, 78, 71, 28, 27, 33, 42, 67, 18, 11, 90, 95, 72, 56, 2, 88, 64, 24, 84, 87, 43, 74, 6, 97, 68, 40, 57, 55, 7, 99, 25, 36, 58, 73, 9, 53, 50, 86, 59, 13, 20, 77, 37, 19, 39, 80, 75, 94, 29, 17, 66, 38, 70, 34, 85, 54, 49, 69, 92, 82, 63, 45, 26, 32, 76]</t>
-  </si>
-  <si>
-    <t>[85, 44, 84, 124, 28, 172, 93, 71, 19, 135, 26, 143, 103, 70, 166, 115, 91, 130, 49, 181, 110, 162, 77, 148, 127, 194, 33, 123, 108, 89, 40, 75, 153, 174, 6, 63, 29, 66, 24, 97, 95, 111, 53, 167, 163, 13, 177, 74, 42, 23, 165, 151, 170, 178, 7, 64, 86, 83, 137, 147, 134, 92, 138, 132, 131, 67, 17, 34, 2, 184, 156, 119, 16, 139, 25, 57, 190, 20, 62, 54, 193, 60, 59, 14, 125, 52, 47, 22, 154, 8, 114, 113, 199, 45, 4, 43, 159, 105, 100, 142, 140, 56, 186, 81, 160, 198, 73, 157, 48, 12, 99, 117, 94, 80, 112, 200, 41, 197, 180, 118, 164, 87, 152, 68, 155, 182, 191, 120, 32, 79, 187, 188, 18, 107, 196, 27, 150, 176, 129, 168, 35, 30, 11, 88, 145, 101, 122, 61, 175, 158, 96, 98, 76, 39, 72, 189, 51, 149, 109, 126, 161, 173, 136, 128, 171, 65, 116, 9, 3, 195, 106, 37, 10, 144, 102, 58, 5, 141, 31, 146, 55, 192, 90, 69, 36, 82, 21, 169, 38, 104, 179, 46, 121, 15, 185, 183, 50, 78, 1, 133]</t>
+    <t>[2, 9, 14, 5, 8, 15, 16, 7, 1, 3, 6, 17, 11, 4, 12, 19, 13, 18, 10, 20]</t>
+  </si>
+  <si>
+    <t>[4, 5, 9, 8, 16, 12, 18, 17, 14, 19, 2, 20, 11, 10, 13, 6, 15, 3, 1, 7]</t>
+  </si>
+  <si>
+    <t>[18, 13, 9, 15, 4, 5, 2, 11, 1, 17, 14, 6, 7, 3, 10, 20, 16, 12, 19, 8]</t>
+  </si>
+  <si>
+    <t>[11, 41, 12, 5, 45, 18, 17, 13, 40, 43, 28, 46, 10, 21, 32, 30, 50, 26, 6, 3, 34, 38, 25, 29, 27, 9, 14, 33, 42, 37, 36, 31, 47, 48, 20, 35, 15, 8, 7, 4, 2, 39, 1, 19, 22, 23, 49, 24, 44, 16]</t>
+  </si>
+  <si>
+    <t>[25, 15, 38, 41, 27, 4, 1, 21, 39, 47, 14, 3, 43, 20, 33, 46, 11, 22, 29, 44, 40, 49, 16, 9, 23, 48, 50, 35, 34, 10, 12, 2, 8, 24, 42, 7, 18, 26, 13, 32, 5, 28, 37, 45, 30, 17, 31, 6, 36, 19]</t>
+  </si>
+  <si>
+    <t>[35, 33, 43, 6, 15, 40, 37, 31, 11, 13, 38, 46, 19, 5, 20, 44, 9, 47, 34, 29, 48, 7, 36, 12, 4, 49, 8, 27, 14, 1, 16, 39, 21, 17, 24, 3, 2, 28, 30, 25, 10, 45, 41, 18, 22, 26, 42, 32, 23, 50]</t>
+  </si>
+  <si>
+    <t>[40, 27, 8, 10, 58, 25, 62, 83, 85, 43, 39, 28, 60, 95, 9, 29, 94, 33, 90, 38, 54, 11, 77, 70, 36, 15, 65, 56, 50, 100, 46, 14, 35, 71, 72, 53, 17, 47, 21, 87, 48, 26, 66, 1, 68, 7, 67, 74, 86, 49, 84, 99, 80, 18, 64, 52, 78, 30, 31, 75, 4, 92, 81, 3, 42, 93, 96, 6, 19, 34, 24, 73, 45, 55, 41, 82, 23, 89, 69, 97, 98, 88, 12, 20, 37, 51, 13, 22, 59, 61, 63, 2, 57, 91, 16, 44, 76, 5, 32, 79]</t>
+  </si>
+  <si>
+    <t>[61, 91, 83, 77, 47, 1, 76, 55, 44, 14, 60, 57, 42, 58, 24, 63, 20, 16, 38, 69, 3, 53, 64, 79, 81, 84, 100, 41, 99, 68, 29, 7, 43, 62, 82, 32, 89, 39, 40, 59, 11, 23, 54, 31, 80, 34, 72, 71, 45, 49, 56, 35, 28, 94, 33, 6, 66, 90, 5, 92, 18, 2, 4, 95, 67, 73, 17, 10, 37, 98, 27, 51, 21, 87, 8, 65, 97, 19, 9, 93, 78, 52, 86, 30, 74, 22, 26, 36, 75, 85, 13, 46, 50, 70, 12, 48, 15, 25, 88, 96]</t>
+  </si>
+  <si>
+    <t>[13, 19, 83, 74, 65, 22, 62, 79, 60, 44, 32, 47, 59, 93, 91, 86, 14, 24, 50, 1, 16, 43, 28, 5, 6, 8, 81, 76, 10, 66, 30, 63, 72, 7, 80, 82, 53, 9, 97, 75, 56, 61, 85, 17, 3, 12, 42, 46, 77, 45, 70, 27, 78, 99, 35, 87, 31, 98, 92, 64, 37, 58, 84, 51, 95, 25, 41, 33, 39, 90, 2, 34, 100, 11, 4, 20, 26, 21, 94, 23, 15, 48, 40, 49, 71, 88, 89, 38, 68, 18, 57, 52, 96, 67, 29, 73, 69, 54, 36, 55]</t>
+  </si>
+  <si>
+    <t>[162, 124, 200, 101, 179, 17, 69, 163, 131, 68, 143, 59, 185, 198, 22, 133, 71, 5, 86, 8, 76, 149, 194, 38, 97, 126, 15, 48, 29, 197, 146, 7, 129, 21, 47, 10, 105, 66, 140, 176, 73, 44, 103, 152, 199, 104, 116, 75, 94, 19, 43, 180, 160, 177, 1, 181, 13, 98, 192, 39, 31, 107, 63, 83, 3, 92, 32, 115, 190, 81, 135, 113, 18, 25, 166, 161, 172, 37, 85, 155, 125, 52, 20, 11, 42, 9, 28, 191, 24, 70, 65, 111, 151, 128, 165, 40, 196, 93, 61, 46, 114, 79, 58, 108, 147, 189, 55, 87, 78, 34, 4, 145, 167, 153, 57, 6, 127, 36, 50, 150, 171, 178, 77, 82, 173, 54, 188, 159, 80, 184, 144, 64, 156, 142, 154, 175, 99, 89, 121, 120, 74, 62, 109, 193, 119, 118, 45, 187, 134, 195, 53, 14, 168, 123, 137, 158, 112, 132, 182, 12, 51, 100, 49, 88, 96, 26, 117, 130, 122, 110, 23, 84, 148, 157, 91, 102, 164, 106, 170, 141, 95, 136, 30, 90, 67, 41, 16, 186, 60, 169, 183, 72, 35, 138, 56, 2, 27, 139, 174, 33]</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -519,33 +519,33 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="F2">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G2">
-        <v>1356.4</v>
+        <v>1345.4</v>
       </c>
       <c r="H2">
-        <v>10.46136</v>
+        <v>12.23274</v>
       </c>
       <c r="I2">
-        <v>0.02586</v>
+        <v>0.02592</v>
       </c>
       <c r="J2">
-        <v>0.05069</v>
+        <v>0.05279</v>
       </c>
       <c r="K2">
-        <v>0.03714</v>
+        <v>0.03842</v>
       </c>
       <c r="L2">
-        <v>0.00776</v>
+        <v>0.009939999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -557,33 +557,33 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="F3">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="G3">
-        <v>1793</v>
+        <v>1792.4</v>
       </c>
       <c r="H3">
-        <v>20.05492</v>
+        <v>18.60753</v>
       </c>
       <c r="I3">
-        <v>0.04141</v>
+        <v>0.04493</v>
       </c>
       <c r="J3">
-        <v>0.08833000000000001</v>
+        <v>0.09608999999999999</v>
       </c>
       <c r="K3">
-        <v>0.06091</v>
+        <v>0.07525</v>
       </c>
       <c r="L3">
-        <v>0.01544</v>
+        <v>0.01526</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -595,33 +595,33 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2499</v>
+        <v>2513</v>
       </c>
       <c r="F4">
-        <v>2543</v>
+        <v>2569</v>
       </c>
       <c r="G4">
-        <v>2518.7</v>
+        <v>2533</v>
       </c>
       <c r="H4">
-        <v>13.22157</v>
+        <v>17.44133</v>
       </c>
       <c r="I4">
-        <v>0.07317</v>
+        <v>0.07378</v>
       </c>
       <c r="J4">
-        <v>0.15647</v>
+        <v>0.47554</v>
       </c>
       <c r="K4">
-        <v>0.09739</v>
+        <v>0.23643</v>
       </c>
       <c r="L4">
-        <v>0.02938</v>
+        <v>0.12467</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -633,33 +633,33 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2845</v>
+        <v>2779</v>
       </c>
       <c r="F5">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="G5">
-        <v>2870.3</v>
+        <v>2860.6</v>
       </c>
       <c r="H5">
-        <v>20.61577</v>
+        <v>33.9535</v>
       </c>
       <c r="I5">
-        <v>0.05755</v>
+        <v>0.06698999999999999</v>
       </c>
       <c r="J5">
-        <v>0.19922</v>
+        <v>0.2872</v>
       </c>
       <c r="K5">
-        <v>0.09457</v>
+        <v>0.16592</v>
       </c>
       <c r="L5">
-        <v>0.04088</v>
+        <v>0.06543</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -671,33 +671,33 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3467</v>
+        <v>3472</v>
       </c>
       <c r="F6">
-        <v>3555</v>
+        <v>3573</v>
       </c>
       <c r="G6">
-        <v>3509.5</v>
+        <v>3526.6</v>
       </c>
       <c r="H6">
-        <v>27.15971</v>
+        <v>30.76426</v>
       </c>
       <c r="I6">
-        <v>0.09274</v>
+        <v>0.0922</v>
       </c>
       <c r="J6">
-        <v>0.21647</v>
+        <v>0.27204</v>
       </c>
       <c r="K6">
-        <v>0.13608</v>
+        <v>0.14067</v>
       </c>
       <c r="L6">
-        <v>0.0386</v>
+        <v>0.05715</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -709,33 +709,33 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4454</v>
+        <v>4423</v>
       </c>
       <c r="F7">
-        <v>4594</v>
+        <v>4588</v>
       </c>
       <c r="G7">
-        <v>4548.9</v>
+        <v>4530.5</v>
       </c>
       <c r="H7">
-        <v>39.91854</v>
+        <v>49.34623</v>
       </c>
       <c r="I7">
-        <v>0.16541</v>
+        <v>0.18207</v>
       </c>
       <c r="J7">
-        <v>0.5809800000000001</v>
+        <v>0.88608</v>
       </c>
       <c r="K7">
-        <v>0.26541</v>
+        <v>0.41811</v>
       </c>
       <c r="L7">
-        <v>0.11976</v>
+        <v>0.19532</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -747,33 +747,33 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>5659</v>
+        <v>5663</v>
       </c>
       <c r="F8">
-        <v>5805</v>
+        <v>5787</v>
       </c>
       <c r="G8">
-        <v>5735.2</v>
+        <v>5734.8</v>
       </c>
       <c r="H8">
-        <v>41.33957</v>
+        <v>31.99625</v>
       </c>
       <c r="I8">
-        <v>0.10687</v>
+        <v>0.10597</v>
       </c>
       <c r="J8">
-        <v>0.22874</v>
+        <v>0.32163</v>
       </c>
       <c r="K8">
-        <v>0.1684</v>
+        <v>0.16245</v>
       </c>
       <c r="L8">
-        <v>0.04085</v>
+        <v>0.05878</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -788,30 +788,30 @@
         <v>6450</v>
       </c>
       <c r="F9">
-        <v>6539</v>
+        <v>6525</v>
       </c>
       <c r="G9">
-        <v>6489.1</v>
+        <v>6492.4</v>
       </c>
       <c r="H9">
-        <v>29.22482</v>
+        <v>23.30322</v>
       </c>
       <c r="I9">
-        <v>0.22186</v>
+        <v>0.1772</v>
       </c>
       <c r="J9">
-        <v>0.64014</v>
+        <v>0.76</v>
       </c>
       <c r="K9">
-        <v>0.3037</v>
+        <v>0.47848</v>
       </c>
       <c r="L9">
-        <v>0.11625</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -823,33 +823,33 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>7267</v>
+        <v>7317</v>
       </c>
       <c r="F10">
-        <v>7433</v>
+        <v>7448</v>
       </c>
       <c r="G10">
-        <v>7363.3</v>
+        <v>7400.7</v>
       </c>
       <c r="H10">
-        <v>51.90963</v>
+        <v>37.2211</v>
       </c>
       <c r="I10">
-        <v>0.31728</v>
+        <v>0.32173</v>
       </c>
       <c r="J10">
-        <v>0.91704</v>
+        <v>1.0351</v>
       </c>
       <c r="K10">
-        <v>0.56482</v>
+        <v>0.71353</v>
       </c>
       <c r="L10">
-        <v>0.18813</v>
+        <v>0.22867</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -861,28 +861,28 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>11695</v>
+        <v>11614</v>
       </c>
       <c r="F11">
-        <v>11818</v>
+        <v>11864</v>
       </c>
       <c r="G11">
-        <v>11757.5</v>
+        <v>11728</v>
       </c>
       <c r="H11">
-        <v>39.4924</v>
+        <v>72.38784</v>
       </c>
       <c r="I11">
-        <v>0.34006</v>
+        <v>0.44234</v>
       </c>
       <c r="J11">
-        <v>0.73146</v>
+        <v>1.05624</v>
       </c>
       <c r="K11">
-        <v>0.47815</v>
+        <v>0.81756</v>
       </c>
       <c r="L11">
-        <v>0.11837</v>
+        <v>0.23726</v>
       </c>
     </row>
   </sheetData>

--- a/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
+++ b/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
@@ -79,34 +79,34 @@
     <t>(200 X 10)</t>
   </si>
   <si>
-    <t>[2, 9, 14, 5, 8, 15, 16, 7, 1, 3, 6, 17, 11, 4, 12, 19, 13, 18, 10, 20]</t>
-  </si>
-  <si>
-    <t>[4, 5, 9, 8, 16, 12, 18, 17, 14, 19, 2, 20, 11, 10, 13, 6, 15, 3, 1, 7]</t>
-  </si>
-  <si>
-    <t>[18, 13, 9, 15, 4, 5, 2, 11, 1, 17, 14, 6, 7, 3, 10, 20, 16, 12, 19, 8]</t>
-  </si>
-  <si>
-    <t>[11, 41, 12, 5, 45, 18, 17, 13, 40, 43, 28, 46, 10, 21, 32, 30, 50, 26, 6, 3, 34, 38, 25, 29, 27, 9, 14, 33, 42, 37, 36, 31, 47, 48, 20, 35, 15, 8, 7, 4, 2, 39, 1, 19, 22, 23, 49, 24, 44, 16]</t>
-  </si>
-  <si>
-    <t>[25, 15, 38, 41, 27, 4, 1, 21, 39, 47, 14, 3, 43, 20, 33, 46, 11, 22, 29, 44, 40, 49, 16, 9, 23, 48, 50, 35, 34, 10, 12, 2, 8, 24, 42, 7, 18, 26, 13, 32, 5, 28, 37, 45, 30, 17, 31, 6, 36, 19]</t>
-  </si>
-  <si>
-    <t>[35, 33, 43, 6, 15, 40, 37, 31, 11, 13, 38, 46, 19, 5, 20, 44, 9, 47, 34, 29, 48, 7, 36, 12, 4, 49, 8, 27, 14, 1, 16, 39, 21, 17, 24, 3, 2, 28, 30, 25, 10, 45, 41, 18, 22, 26, 42, 32, 23, 50]</t>
-  </si>
-  <si>
-    <t>[40, 27, 8, 10, 58, 25, 62, 83, 85, 43, 39, 28, 60, 95, 9, 29, 94, 33, 90, 38, 54, 11, 77, 70, 36, 15, 65, 56, 50, 100, 46, 14, 35, 71, 72, 53, 17, 47, 21, 87, 48, 26, 66, 1, 68, 7, 67, 74, 86, 49, 84, 99, 80, 18, 64, 52, 78, 30, 31, 75, 4, 92, 81, 3, 42, 93, 96, 6, 19, 34, 24, 73, 45, 55, 41, 82, 23, 89, 69, 97, 98, 88, 12, 20, 37, 51, 13, 22, 59, 61, 63, 2, 57, 91, 16, 44, 76, 5, 32, 79]</t>
-  </si>
-  <si>
-    <t>[61, 91, 83, 77, 47, 1, 76, 55, 44, 14, 60, 57, 42, 58, 24, 63, 20, 16, 38, 69, 3, 53, 64, 79, 81, 84, 100, 41, 99, 68, 29, 7, 43, 62, 82, 32, 89, 39, 40, 59, 11, 23, 54, 31, 80, 34, 72, 71, 45, 49, 56, 35, 28, 94, 33, 6, 66, 90, 5, 92, 18, 2, 4, 95, 67, 73, 17, 10, 37, 98, 27, 51, 21, 87, 8, 65, 97, 19, 9, 93, 78, 52, 86, 30, 74, 22, 26, 36, 75, 85, 13, 46, 50, 70, 12, 48, 15, 25, 88, 96]</t>
-  </si>
-  <si>
-    <t>[13, 19, 83, 74, 65, 22, 62, 79, 60, 44, 32, 47, 59, 93, 91, 86, 14, 24, 50, 1, 16, 43, 28, 5, 6, 8, 81, 76, 10, 66, 30, 63, 72, 7, 80, 82, 53, 9, 97, 75, 56, 61, 85, 17, 3, 12, 42, 46, 77, 45, 70, 27, 78, 99, 35, 87, 31, 98, 92, 64, 37, 58, 84, 51, 95, 25, 41, 33, 39, 90, 2, 34, 100, 11, 4, 20, 26, 21, 94, 23, 15, 48, 40, 49, 71, 88, 89, 38, 68, 18, 57, 52, 96, 67, 29, 73, 69, 54, 36, 55]</t>
-  </si>
-  <si>
-    <t>[162, 124, 200, 101, 179, 17, 69, 163, 131, 68, 143, 59, 185, 198, 22, 133, 71, 5, 86, 8, 76, 149, 194, 38, 97, 126, 15, 48, 29, 197, 146, 7, 129, 21, 47, 10, 105, 66, 140, 176, 73, 44, 103, 152, 199, 104, 116, 75, 94, 19, 43, 180, 160, 177, 1, 181, 13, 98, 192, 39, 31, 107, 63, 83, 3, 92, 32, 115, 190, 81, 135, 113, 18, 25, 166, 161, 172, 37, 85, 155, 125, 52, 20, 11, 42, 9, 28, 191, 24, 70, 65, 111, 151, 128, 165, 40, 196, 93, 61, 46, 114, 79, 58, 108, 147, 189, 55, 87, 78, 34, 4, 145, 167, 153, 57, 6, 127, 36, 50, 150, 171, 178, 77, 82, 173, 54, 188, 159, 80, 184, 144, 64, 156, 142, 154, 175, 99, 89, 121, 120, 74, 62, 109, 193, 119, 118, 45, 187, 134, 195, 53, 14, 168, 123, 137, 158, 112, 132, 182, 12, 51, 100, 49, 88, 96, 26, 117, 130, 122, 110, 23, 84, 148, 157, 91, 102, 164, 106, 170, 141, 95, 136, 30, 90, 67, 41, 16, 186, 60, 169, 183, 72, 35, 138, 56, 2, 27, 139, 174, 33]</t>
+    <t>[19, 13, 14, 8, 11, 5, 17, 18, 1, 16, 7, 12, 3, 4, 9, 2, 6, 15, 20, 10]</t>
+  </si>
+  <si>
+    <t>[19, 5, 12, 9, 7, 14, 3, 2, 6, 13, 15, 17, 8, 10, 20, 11, 1, 16, 18, 4]</t>
+  </si>
+  <si>
+    <t>[7, 16, 13, 8, 3, 11, 15, 6, 17, 20, 14, 9, 10, 12, 2, 1, 4, 5, 18, 19]</t>
+  </si>
+  <si>
+    <t>[8, 3, 26, 17, 45, 46, 22, 20, 38, 32, 48, 31, 21, 43, 36, 42, 15, 29, 41, 49, 14, 1, 24, 10, 27, 33, 2, 18, 4, 34, 19, 25, 11, 47, 44, 28, 6, 5, 23, 39, 13, 37, 16, 7, 30, 50, 35, 12, 40, 9]</t>
+  </si>
+  <si>
+    <t>[41, 29, 49, 44, 2, 15, 35, 26, 3, 50, 23, 32, 14, 38, 12, 17, 46, 6, 18, 28, 48, 36, 7, 8, 30, 20, 4, 24, 43, 34, 5, 10, 42, 31, 40, 47, 1, 9, 11, 33, 16, 13, 19, 37, 25, 45, 22, 21, 39, 27]</t>
+  </si>
+  <si>
+    <t>[17, 33, 50, 45, 5, 32, 24, 9, 21, 10, 23, 6, 1, 46, 38, 44, 47, 14, 30, 22, 42, 19, 13, 8, 2, 12, 36, 11, 3, 43, 48, 29, 34, 28, 26, 16, 25, 7, 37, 35, 49, 40, 20, 4, 18, 31, 15, 39, 27, 41]</t>
+  </si>
+  <si>
+    <t>[41, 2, 39, 99, 42, 64, 46, 20, 57, 90, 91, 68, 52, 40, 24, 23, 69, 72, 17, 26, 92, 27, 74, 8, 100, 35, 22, 37, 79, 85, 44, 55, 75, 11, 1, 50, 62, 84, 98, 53, 18, 15, 93, 83, 77, 34, 12, 13, 89, 76, 21, 96, 87, 71, 81, 3, 58, 88, 61, 80, 95, 65, 25, 9, 73, 6, 43, 16, 10, 7, 54, 48, 70, 59, 36, 86, 14, 67, 32, 45, 47, 5, 4, 82, 31, 49, 63, 94, 30, 33, 66, 97, 28, 51, 29, 19, 38, 60, 78, 56]</t>
+  </si>
+  <si>
+    <t>[60, 10, 100, 85, 1, 76, 20, 48, 52, 17, 93, 97, 24, 55, 78, 23, 58, 95, 94, 35, 3, 36, 75, 68, 57, 67, 4, 43, 44, 34, 56, 5, 49, 25, 87, 29, 38, 91, 2, 32, 92, 64, 41, 47, 31, 7, 14, 70, 8, 73, 62, 81, 84, 21, 46, 18, 50, 45, 77, 66, 86, 27, 90, 26, 63, 83, 13, 37, 40, 42, 69, 65, 28, 82, 74, 16, 19, 53, 79, 9, 98, 54, 88, 59, 89, 99, 80, 6, 61, 22, 33, 30, 11, 12, 96, 72, 15, 71, 51, 39]</t>
+  </si>
+  <si>
+    <t>[1, 69, 46, 50, 6, 75, 87, 92, 2, 24, 59, 72, 85, 80, 90, 76, 67, 25, 86, 81, 40, 35, 53, 15, 65, 64, 62, 99, 48, 52, 82, 27, 91, 79, 22, 13, 84, 4, 36, 70, 11, 34, 56, 43, 38, 30, 88, 16, 32, 33, 29, 63, 14, 73, 55, 39, 95, 60, 94, 20, 18, 61, 45, 3, 93, 37, 42, 54, 96, 9, 5, 100, 26, 77, 83, 49, 66, 21, 44, 97, 98, 58, 31, 17, 10, 8, 23, 74, 68, 78, 19, 89, 51, 57, 71, 7, 41, 12, 47, 28]</t>
+  </si>
+  <si>
+    <t>[117, 148, 144, 158, 8, 125, 179, 89, 168, 46, 31, 131, 182, 23, 50, 120, 142, 177, 20, 28, 194, 188, 156, 34, 138, 98, 192, 71, 74, 197, 95, 47, 61, 91, 121, 191, 181, 79, 6, 162, 52, 140, 127, 85, 123, 180, 11, 53, 167, 25, 56, 59, 82, 76, 38, 173, 109, 128, 185, 175, 9, 200, 184, 66, 54, 35, 186, 41, 42, 151, 70, 49, 21, 170, 160, 67, 193, 150, 153, 113, 101, 166, 7, 189, 10, 87, 135, 145, 36, 169, 4, 172, 77, 58, 51, 90, 137, 83, 84, 195, 115, 75, 19, 37, 196, 107, 187, 78, 69, 132, 164, 124, 176, 96, 48, 134, 72, 143, 32, 40, 5, 199, 97, 133, 141, 159, 15, 154, 39, 63, 118, 33, 26, 93, 62, 57, 99, 174, 55, 12, 171, 16, 183, 108, 73, 147, 165, 139, 80, 126, 146, 13, 163, 24, 17, 157, 65, 149, 44, 106, 18, 100, 152, 111, 68, 88, 64, 94, 45, 104, 86, 1, 110, 22, 112, 14, 178, 29, 116, 105, 161, 92, 190, 136, 81, 102, 130, 3, 27, 103, 43, 155, 122, 119, 2, 129, 30, 198, 60, 114]</t>
   </si>
 </sst>
 </file>
@@ -513,34 +513,34 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1323</v>
+        <v>1376</v>
       </c>
       <c r="F2">
-        <v>1364</v>
+        <v>1422</v>
       </c>
       <c r="G2">
-        <v>1345.4</v>
+        <v>1395.2</v>
       </c>
       <c r="H2">
-        <v>12.23274</v>
+        <v>15.79114</v>
       </c>
       <c r="I2">
-        <v>0.02592</v>
+        <v>0.00144</v>
       </c>
       <c r="J2">
-        <v>0.05279</v>
+        <v>0.00359</v>
       </c>
       <c r="K2">
-        <v>0.03842</v>
+        <v>0.00228</v>
       </c>
       <c r="L2">
-        <v>0.009939999999999999</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -551,34 +551,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1762</v>
+        <v>1821</v>
       </c>
       <c r="F3">
-        <v>1826</v>
+        <v>1905</v>
       </c>
       <c r="G3">
-        <v>1792.4</v>
+        <v>1855.5</v>
       </c>
       <c r="H3">
-        <v>18.60753</v>
+        <v>25.49216</v>
       </c>
       <c r="I3">
-        <v>0.04493</v>
+        <v>0.00185</v>
       </c>
       <c r="J3">
-        <v>0.09608999999999999</v>
+        <v>0.0056</v>
       </c>
       <c r="K3">
-        <v>0.07525</v>
+        <v>0.00296</v>
       </c>
       <c r="L3">
-        <v>0.01526</v>
+        <v>0.00113</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,34 +589,34 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2513</v>
+        <v>2536</v>
       </c>
       <c r="F4">
-        <v>2569</v>
+        <v>2648</v>
       </c>
       <c r="G4">
-        <v>2533</v>
+        <v>2600.6</v>
       </c>
       <c r="H4">
-        <v>17.44133</v>
+        <v>32.56133</v>
       </c>
       <c r="I4">
-        <v>0.07378</v>
+        <v>0.00297</v>
       </c>
       <c r="J4">
-        <v>0.47554</v>
+        <v>0.00644</v>
       </c>
       <c r="K4">
-        <v>0.23643</v>
+        <v>0.0051</v>
       </c>
       <c r="L4">
-        <v>0.12467</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,34 +627,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2779</v>
+        <v>2875</v>
       </c>
       <c r="F5">
-        <v>2901</v>
+        <v>3039</v>
       </c>
       <c r="G5">
-        <v>2860.6</v>
+        <v>2978.9</v>
       </c>
       <c r="H5">
-        <v>33.9535</v>
+        <v>44.26839</v>
       </c>
       <c r="I5">
-        <v>0.06698999999999999</v>
+        <v>0.00239</v>
       </c>
       <c r="J5">
-        <v>0.2872</v>
+        <v>0.00576</v>
       </c>
       <c r="K5">
-        <v>0.16592</v>
+        <v>0.00376</v>
       </c>
       <c r="L5">
-        <v>0.06543</v>
+        <v>0.00104</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -665,34 +665,34 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3472</v>
+        <v>3519</v>
       </c>
       <c r="F6">
-        <v>3573</v>
+        <v>3693</v>
       </c>
       <c r="G6">
-        <v>3526.6</v>
+        <v>3617.8</v>
       </c>
       <c r="H6">
-        <v>30.76426</v>
+        <v>48.22613</v>
       </c>
       <c r="I6">
-        <v>0.0922</v>
+        <v>0.0037</v>
       </c>
       <c r="J6">
-        <v>0.27204</v>
+        <v>0.01064</v>
       </c>
       <c r="K6">
-        <v>0.14067</v>
+        <v>0.0057</v>
       </c>
       <c r="L6">
-        <v>0.05715</v>
+        <v>0.00249</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -703,34 +703,34 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4423</v>
+        <v>4608</v>
       </c>
       <c r="F7">
-        <v>4588</v>
+        <v>4735</v>
       </c>
       <c r="G7">
-        <v>4530.5</v>
+        <v>4664.3</v>
       </c>
       <c r="H7">
-        <v>49.34623</v>
+        <v>38.05273</v>
       </c>
       <c r="I7">
-        <v>0.18207</v>
+        <v>0.00655</v>
       </c>
       <c r="J7">
-        <v>0.88608</v>
+        <v>0.01895</v>
       </c>
       <c r="K7">
-        <v>0.41811</v>
+        <v>0.01011</v>
       </c>
       <c r="L7">
-        <v>0.19532</v>
+        <v>0.00363</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -741,34 +741,34 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>5663</v>
+        <v>5791</v>
       </c>
       <c r="F8">
-        <v>5787</v>
+        <v>5968</v>
       </c>
       <c r="G8">
-        <v>5734.8</v>
+        <v>5841.5</v>
       </c>
       <c r="H8">
-        <v>31.99625</v>
+        <v>45.23107</v>
       </c>
       <c r="I8">
-        <v>0.10597</v>
+        <v>0.00453</v>
       </c>
       <c r="J8">
-        <v>0.32163</v>
+        <v>0.01167</v>
       </c>
       <c r="K8">
-        <v>0.16245</v>
+        <v>0.00743</v>
       </c>
       <c r="L8">
-        <v>0.05878</v>
+        <v>0.00201</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -779,34 +779,34 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>6450</v>
+        <v>6573</v>
       </c>
       <c r="F9">
-        <v>6525</v>
+        <v>6713</v>
       </c>
       <c r="G9">
-        <v>6492.4</v>
+        <v>6628.7</v>
       </c>
       <c r="H9">
-        <v>23.30322</v>
+        <v>48.88977</v>
       </c>
       <c r="I9">
-        <v>0.1772</v>
+        <v>0.00945</v>
       </c>
       <c r="J9">
-        <v>0.76</v>
+        <v>0.03092</v>
       </c>
       <c r="K9">
-        <v>0.47848</v>
+        <v>0.02044</v>
       </c>
       <c r="L9">
-        <v>0.1879</v>
+        <v>0.00709</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -817,34 +817,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10">
-        <v>7317</v>
+        <v>7382</v>
       </c>
       <c r="F10">
-        <v>7448</v>
+        <v>7639</v>
       </c>
       <c r="G10">
-        <v>7400.7</v>
+        <v>7493.9</v>
       </c>
       <c r="H10">
-        <v>37.2211</v>
+        <v>76.60084999999999</v>
       </c>
       <c r="I10">
-        <v>0.32173</v>
+        <v>0.02933</v>
       </c>
       <c r="J10">
-        <v>1.0351</v>
+        <v>0.08759</v>
       </c>
       <c r="K10">
-        <v>0.71353</v>
+        <v>0.04819</v>
       </c>
       <c r="L10">
-        <v>0.22867</v>
+        <v>0.01814</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -855,34 +855,34 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11">
-        <v>11614</v>
+        <v>11876</v>
       </c>
       <c r="F11">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="G11">
-        <v>11728</v>
+        <v>11946</v>
       </c>
       <c r="H11">
-        <v>72.38784</v>
+        <v>51.87678</v>
       </c>
       <c r="I11">
-        <v>0.44234</v>
+        <v>0.03182</v>
       </c>
       <c r="J11">
-        <v>1.05624</v>
+        <v>0.09195</v>
       </c>
       <c r="K11">
-        <v>0.81756</v>
+        <v>0.05575</v>
       </c>
       <c r="L11">
-        <v>0.23726</v>
+        <v>0.0174</v>
       </c>
     </row>
   </sheetData>

--- a/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
+++ b/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
@@ -79,34 +79,34 @@
     <t>(200 X 10)</t>
   </si>
   <si>
-    <t>[19, 13, 14, 8, 11, 5, 17, 18, 1, 16, 7, 12, 3, 4, 9, 2, 6, 15, 20, 10]</t>
-  </si>
-  <si>
-    <t>[19, 5, 12, 9, 7, 14, 3, 2, 6, 13, 15, 17, 8, 10, 20, 11, 1, 16, 18, 4]</t>
-  </si>
-  <si>
-    <t>[7, 16, 13, 8, 3, 11, 15, 6, 17, 20, 14, 9, 10, 12, 2, 1, 4, 5, 18, 19]</t>
-  </si>
-  <si>
-    <t>[8, 3, 26, 17, 45, 46, 22, 20, 38, 32, 48, 31, 21, 43, 36, 42, 15, 29, 41, 49, 14, 1, 24, 10, 27, 33, 2, 18, 4, 34, 19, 25, 11, 47, 44, 28, 6, 5, 23, 39, 13, 37, 16, 7, 30, 50, 35, 12, 40, 9]</t>
-  </si>
-  <si>
-    <t>[41, 29, 49, 44, 2, 15, 35, 26, 3, 50, 23, 32, 14, 38, 12, 17, 46, 6, 18, 28, 48, 36, 7, 8, 30, 20, 4, 24, 43, 34, 5, 10, 42, 31, 40, 47, 1, 9, 11, 33, 16, 13, 19, 37, 25, 45, 22, 21, 39, 27]</t>
-  </si>
-  <si>
-    <t>[17, 33, 50, 45, 5, 32, 24, 9, 21, 10, 23, 6, 1, 46, 38, 44, 47, 14, 30, 22, 42, 19, 13, 8, 2, 12, 36, 11, 3, 43, 48, 29, 34, 28, 26, 16, 25, 7, 37, 35, 49, 40, 20, 4, 18, 31, 15, 39, 27, 41]</t>
-  </si>
-  <si>
-    <t>[41, 2, 39, 99, 42, 64, 46, 20, 57, 90, 91, 68, 52, 40, 24, 23, 69, 72, 17, 26, 92, 27, 74, 8, 100, 35, 22, 37, 79, 85, 44, 55, 75, 11, 1, 50, 62, 84, 98, 53, 18, 15, 93, 83, 77, 34, 12, 13, 89, 76, 21, 96, 87, 71, 81, 3, 58, 88, 61, 80, 95, 65, 25, 9, 73, 6, 43, 16, 10, 7, 54, 48, 70, 59, 36, 86, 14, 67, 32, 45, 47, 5, 4, 82, 31, 49, 63, 94, 30, 33, 66, 97, 28, 51, 29, 19, 38, 60, 78, 56]</t>
-  </si>
-  <si>
-    <t>[60, 10, 100, 85, 1, 76, 20, 48, 52, 17, 93, 97, 24, 55, 78, 23, 58, 95, 94, 35, 3, 36, 75, 68, 57, 67, 4, 43, 44, 34, 56, 5, 49, 25, 87, 29, 38, 91, 2, 32, 92, 64, 41, 47, 31, 7, 14, 70, 8, 73, 62, 81, 84, 21, 46, 18, 50, 45, 77, 66, 86, 27, 90, 26, 63, 83, 13, 37, 40, 42, 69, 65, 28, 82, 74, 16, 19, 53, 79, 9, 98, 54, 88, 59, 89, 99, 80, 6, 61, 22, 33, 30, 11, 12, 96, 72, 15, 71, 51, 39]</t>
-  </si>
-  <si>
-    <t>[1, 69, 46, 50, 6, 75, 87, 92, 2, 24, 59, 72, 85, 80, 90, 76, 67, 25, 86, 81, 40, 35, 53, 15, 65, 64, 62, 99, 48, 52, 82, 27, 91, 79, 22, 13, 84, 4, 36, 70, 11, 34, 56, 43, 38, 30, 88, 16, 32, 33, 29, 63, 14, 73, 55, 39, 95, 60, 94, 20, 18, 61, 45, 3, 93, 37, 42, 54, 96, 9, 5, 100, 26, 77, 83, 49, 66, 21, 44, 97, 98, 58, 31, 17, 10, 8, 23, 74, 68, 78, 19, 89, 51, 57, 71, 7, 41, 12, 47, 28]</t>
-  </si>
-  <si>
-    <t>[117, 148, 144, 158, 8, 125, 179, 89, 168, 46, 31, 131, 182, 23, 50, 120, 142, 177, 20, 28, 194, 188, 156, 34, 138, 98, 192, 71, 74, 197, 95, 47, 61, 91, 121, 191, 181, 79, 6, 162, 52, 140, 127, 85, 123, 180, 11, 53, 167, 25, 56, 59, 82, 76, 38, 173, 109, 128, 185, 175, 9, 200, 184, 66, 54, 35, 186, 41, 42, 151, 70, 49, 21, 170, 160, 67, 193, 150, 153, 113, 101, 166, 7, 189, 10, 87, 135, 145, 36, 169, 4, 172, 77, 58, 51, 90, 137, 83, 84, 195, 115, 75, 19, 37, 196, 107, 187, 78, 69, 132, 164, 124, 176, 96, 48, 134, 72, 143, 32, 40, 5, 199, 97, 133, 141, 159, 15, 154, 39, 63, 118, 33, 26, 93, 62, 57, 99, 174, 55, 12, 171, 16, 183, 108, 73, 147, 165, 139, 80, 126, 146, 13, 163, 24, 17, 157, 65, 149, 44, 106, 18, 100, 152, 111, 68, 88, 64, 94, 45, 104, 86, 1, 110, 22, 112, 14, 178, 29, 116, 105, 161, 92, 190, 136, 81, 102, 130, 3, 27, 103, 43, 155, 122, 119, 2, 129, 30, 198, 60, 114]</t>
+    <t>[15, 4, 18, 11, 14, 7, 20, 8, 16, 6, 9, 19, 17, 13, 1, 2, 5, 12, 3, 10]</t>
+  </si>
+  <si>
+    <t>[5, 19, 11, 4, 15, 9, 1, 12, 14, 10, 6, 20, 17, 18, 7, 2, 13, 16, 8, 3]</t>
+  </si>
+  <si>
+    <t>[3, 13, 10, 16, 8, 20, 4, 12, 7, 15, 11, 2, 9, 17, 5, 1, 6, 14, 18, 19]</t>
+  </si>
+  <si>
+    <t>[40, 4, 50, 34, 19, 44, 30, 9, 32, 26, 8, 13, 12, 18, 41, 38, 5, 22, 23, 24, 46, 37, 2, 36, 35, 42, 27, 1, 25, 3, 21, 29, 7, 20, 31, 28, 48, 16, 39, 11, 45, 10, 6, 33, 43, 17, 15, 47, 14, 49]</t>
+  </si>
+  <si>
+    <t>[36, 29, 4, 49, 19, 24, 10, 3, 1, 48, 37, 5, 6, 35, 25, 20, 22, 42, 28, 16, 39, 38, 46, 43, 23, 31, 2, 21, 34, 44, 9, 47, 41, 30, 14, 27, 18, 17, 7, 11, 50, 13, 26, 8, 32, 33, 45, 12, 40, 15]</t>
+  </si>
+  <si>
+    <t>[48, 33, 29, 1, 39, 27, 43, 6, 40, 13, 8, 32, 3, 47, 16, 23, 5, 49, 2, 35, 41, 45, 36, 21, 37, 50, 7, 46, 24, 30, 14, 42, 12, 38, 19, 9, 4, 11, 18, 31, 15, 17, 10, 20, 34, 28, 26, 44, 22, 25]</t>
+  </si>
+  <si>
+    <t>[8, 12, 5, 20, 96, 75, 69, 43, 36, 19, 83, 39, 44, 86, 16, 10, 13, 50, 97, 100, 42, 99, 48, 90, 21, 26, 14, 74, 3, 55, 40, 27, 84, 70, 59, 80, 87, 47, 17, 53, 67, 45, 37, 15, 9, 68, 46, 22, 29, 34, 33, 49, 30, 31, 24, 71, 60, 72, 78, 89, 79, 66, 82, 32, 93, 41, 11, 25, 28, 91, 76, 56, 4, 85, 35, 63, 1, 7, 62, 98, 73, 61, 57, 95, 18, 58, 81, 23, 88, 51, 6, 94, 38, 92, 54, 2, 52, 65, 64, 77]</t>
+  </si>
+  <si>
+    <t>[43, 41, 27, 57, 8, 54, 15, 63, 11, 67, 2, 51, 84, 58, 22, 10, 66, 44, 60, 69, 93, 68, 38, 62, 45, 47, 91, 92, 86, 85, 28, 5, 65, 74, 37, 13, 76, 78, 29, 25, 31, 33, 82, 97, 61, 48, 95, 39, 56, 99, 71, 40, 53, 49, 32, 90, 6, 96, 100, 35, 42, 16, 46, 55, 80, 81, 83, 24, 3, 64, 94, 18, 26, 52, 21, 70, 14, 36, 34, 73, 77, 7, 17, 75, 98, 72, 20, 30, 23, 4, 59, 9, 79, 87, 1, 88, 89, 50, 12, 19]</t>
+  </si>
+  <si>
+    <t>[59, 89, 31, 49, 82, 39, 22, 72, 6, 60, 20, 54, 26, 7, 35, 37, 16, 21, 78, 92, 44, 42, 85, 81, 9, 70, 2, 28, 58, 25, 13, 57, 24, 15, 93, 46, 10, 99, 95, 67, 96, 3, 8, 61, 91, 77, 87, 66, 1, 11, 100, 40, 98, 86, 88, 43, 27, 74, 48, 23, 33, 83, 14, 75, 12, 47, 84, 34, 97, 52, 55, 63, 71, 30, 41, 36, 68, 19, 79, 38, 18, 69, 94, 62, 80, 5, 51, 32, 50, 65, 45, 76, 64, 90, 29, 4, 73, 56, 17, 53]</t>
+  </si>
+  <si>
+    <t>[42, 109, 102, 185, 1, 82, 181, 86, 5, 145, 98, 163, 137, 8, 13, 16, 150, 69, 63, 33, 43, 116, 188, 14, 83, 64, 170, 168, 92, 142, 124, 108, 48, 15, 11, 51, 191, 120, 197, 49, 53, 3, 12, 85, 131, 38, 182, 146, 36, 73, 186, 4, 115, 30, 97, 118, 195, 190, 24, 114, 57, 68, 91, 147, 165, 65, 25, 54, 76, 171, 198, 129, 107, 99, 193, 34, 67, 144, 40, 177, 74, 101, 184, 166, 52, 123, 39, 126, 81, 160, 148, 141, 78, 44, 21, 41, 152, 87, 100, 7, 162, 189, 103, 6, 173, 167, 56, 159, 80, 46, 96, 50, 35, 29, 117, 178, 58, 139, 154, 179, 32, 19, 20, 140, 106, 2, 151, 47, 136, 88, 71, 17, 187, 169, 155, 113, 172, 22, 133, 59, 90, 55, 94, 75, 37, 111, 60, 156, 61, 128, 26, 153, 192, 121, 77, 105, 110, 158, 125, 28, 127, 89, 132, 161, 62, 200, 122, 45, 149, 9, 176, 130, 196, 157, 164, 135, 79, 104, 134, 183, 138, 199, 174, 66, 194, 143, 27, 112, 95, 18, 72, 119, 70, 93, 10, 84, 31, 23, 180, 175]</t>
   </si>
 </sst>
 </file>
@@ -519,28 +519,28 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F2">
-        <v>1422</v>
+        <v>1440</v>
       </c>
       <c r="G2">
-        <v>1395.2</v>
+        <v>1398.4</v>
       </c>
       <c r="H2">
-        <v>15.79114</v>
+        <v>19.8454</v>
       </c>
       <c r="I2">
-        <v>0.00144</v>
+        <v>0.00127</v>
       </c>
       <c r="J2">
-        <v>0.00359</v>
+        <v>0.00469</v>
       </c>
       <c r="K2">
-        <v>0.00228</v>
+        <v>0.00215</v>
       </c>
       <c r="L2">
-        <v>0.00068</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -557,28 +557,28 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1821</v>
+        <v>1832</v>
       </c>
       <c r="F3">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="G3">
-        <v>1855.5</v>
+        <v>1861.9</v>
       </c>
       <c r="H3">
-        <v>25.49216</v>
+        <v>26.51962</v>
       </c>
       <c r="I3">
-        <v>0.00185</v>
+        <v>0.0019</v>
       </c>
       <c r="J3">
-        <v>0.0056</v>
+        <v>0.00478</v>
       </c>
       <c r="K3">
-        <v>0.00296</v>
+        <v>0.0028</v>
       </c>
       <c r="L3">
-        <v>0.00113</v>
+        <v>0.00088</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -595,28 +595,28 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2536</v>
+        <v>2521</v>
       </c>
       <c r="F4">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="G4">
-        <v>2600.6</v>
+        <v>2587.2</v>
       </c>
       <c r="H4">
-        <v>32.56133</v>
+        <v>38.28786</v>
       </c>
       <c r="I4">
-        <v>0.00297</v>
+        <v>0.00319</v>
       </c>
       <c r="J4">
-        <v>0.00644</v>
+        <v>0.0097</v>
       </c>
       <c r="K4">
-        <v>0.0051</v>
+        <v>0.00473</v>
       </c>
       <c r="L4">
-        <v>0.0009700000000000001</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -633,28 +633,28 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2875</v>
+        <v>2881</v>
       </c>
       <c r="F5">
-        <v>3039</v>
+        <v>3027</v>
       </c>
       <c r="G5">
-        <v>2978.9</v>
+        <v>2951.4</v>
       </c>
       <c r="H5">
-        <v>44.26839</v>
+        <v>53.05884</v>
       </c>
       <c r="I5">
-        <v>0.00239</v>
+        <v>0.00247</v>
       </c>
       <c r="J5">
-        <v>0.00576</v>
+        <v>0.00499</v>
       </c>
       <c r="K5">
         <v>0.00376</v>
       </c>
       <c r="L5">
-        <v>0.00104</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -671,28 +671,28 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3519</v>
+        <v>3546</v>
       </c>
       <c r="F6">
-        <v>3693</v>
+        <v>3675</v>
       </c>
       <c r="G6">
-        <v>3617.8</v>
+        <v>3594.2</v>
       </c>
       <c r="H6">
-        <v>48.22613</v>
+        <v>38.72415</v>
       </c>
       <c r="I6">
-        <v>0.0037</v>
+        <v>0.00412</v>
       </c>
       <c r="J6">
-        <v>0.01064</v>
+        <v>0.01001</v>
       </c>
       <c r="K6">
-        <v>0.0057</v>
+        <v>0.0064</v>
       </c>
       <c r="L6">
-        <v>0.00249</v>
+        <v>0.00202</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -709,28 +709,28 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4608</v>
+        <v>4590</v>
       </c>
       <c r="F7">
-        <v>4735</v>
+        <v>4754</v>
       </c>
       <c r="G7">
-        <v>4664.3</v>
+        <v>4670.2</v>
       </c>
       <c r="H7">
-        <v>38.05273</v>
+        <v>50.90737</v>
       </c>
       <c r="I7">
-        <v>0.00655</v>
+        <v>0.0075</v>
       </c>
       <c r="J7">
-        <v>0.01895</v>
+        <v>0.01626</v>
       </c>
       <c r="K7">
-        <v>0.01011</v>
+        <v>0.01163</v>
       </c>
       <c r="L7">
-        <v>0.00363</v>
+        <v>0.00298</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -747,28 +747,28 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>5791</v>
+        <v>5760</v>
       </c>
       <c r="F8">
-        <v>5968</v>
+        <v>5945</v>
       </c>
       <c r="G8">
-        <v>5841.5</v>
+        <v>5841.7</v>
       </c>
       <c r="H8">
-        <v>45.23107</v>
+        <v>52.65178</v>
       </c>
       <c r="I8">
-        <v>0.00453</v>
+        <v>0.00457</v>
       </c>
       <c r="J8">
-        <v>0.01167</v>
+        <v>0.01185</v>
       </c>
       <c r="K8">
-        <v>0.00743</v>
+        <v>0.00779</v>
       </c>
       <c r="L8">
-        <v>0.00201</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -785,28 +785,28 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>6573</v>
+        <v>6454</v>
       </c>
       <c r="F9">
-        <v>6713</v>
+        <v>6738</v>
       </c>
       <c r="G9">
-        <v>6628.7</v>
+        <v>6607.5</v>
       </c>
       <c r="H9">
-        <v>48.88977</v>
+        <v>76.5</v>
       </c>
       <c r="I9">
-        <v>0.00945</v>
+        <v>0.0075</v>
       </c>
       <c r="J9">
-        <v>0.03092</v>
+        <v>0.01886</v>
       </c>
       <c r="K9">
-        <v>0.02044</v>
+        <v>0.01088</v>
       </c>
       <c r="L9">
-        <v>0.00709</v>
+        <v>0.00396</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -823,28 +823,28 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>7382</v>
+        <v>7406</v>
       </c>
       <c r="F10">
         <v>7639</v>
       </c>
       <c r="G10">
-        <v>7493.9</v>
+        <v>7529.5</v>
       </c>
       <c r="H10">
-        <v>76.60084999999999</v>
+        <v>71.51678</v>
       </c>
       <c r="I10">
-        <v>0.02933</v>
+        <v>0.01387</v>
       </c>
       <c r="J10">
-        <v>0.08759</v>
+        <v>0.03966</v>
       </c>
       <c r="K10">
-        <v>0.04819</v>
+        <v>0.02362</v>
       </c>
       <c r="L10">
-        <v>0.01814</v>
+        <v>0.00928</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -861,28 +861,28 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>11876</v>
+        <v>11759</v>
       </c>
       <c r="F11">
-        <v>12025</v>
+        <v>12058</v>
       </c>
       <c r="G11">
-        <v>11946</v>
+        <v>11902.3</v>
       </c>
       <c r="H11">
-        <v>51.87678</v>
+        <v>101.81066</v>
       </c>
       <c r="I11">
-        <v>0.03182</v>
+        <v>0.01733</v>
       </c>
       <c r="J11">
-        <v>0.09195</v>
+        <v>0.04662</v>
       </c>
       <c r="K11">
-        <v>0.05575</v>
+        <v>0.02558</v>
       </c>
       <c r="L11">
-        <v>0.0174</v>
+        <v>0.00873</v>
       </c>
     </row>
   </sheetData>

--- a/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
+++ b/FlowShop_Genetic_Algorithm/reports/flow_shop_report.xlsx
@@ -79,34 +79,34 @@
     <t>(200 X 10)</t>
   </si>
   <si>
-    <t>[15, 4, 18, 11, 14, 7, 20, 8, 16, 6, 9, 19, 17, 13, 1, 2, 5, 12, 3, 10]</t>
-  </si>
-  <si>
-    <t>[5, 19, 11, 4, 15, 9, 1, 12, 14, 10, 6, 20, 17, 18, 7, 2, 13, 16, 8, 3]</t>
-  </si>
-  <si>
-    <t>[3, 13, 10, 16, 8, 20, 4, 12, 7, 15, 11, 2, 9, 17, 5, 1, 6, 14, 18, 19]</t>
-  </si>
-  <si>
-    <t>[40, 4, 50, 34, 19, 44, 30, 9, 32, 26, 8, 13, 12, 18, 41, 38, 5, 22, 23, 24, 46, 37, 2, 36, 35, 42, 27, 1, 25, 3, 21, 29, 7, 20, 31, 28, 48, 16, 39, 11, 45, 10, 6, 33, 43, 17, 15, 47, 14, 49]</t>
-  </si>
-  <si>
-    <t>[36, 29, 4, 49, 19, 24, 10, 3, 1, 48, 37, 5, 6, 35, 25, 20, 22, 42, 28, 16, 39, 38, 46, 43, 23, 31, 2, 21, 34, 44, 9, 47, 41, 30, 14, 27, 18, 17, 7, 11, 50, 13, 26, 8, 32, 33, 45, 12, 40, 15]</t>
-  </si>
-  <si>
-    <t>[48, 33, 29, 1, 39, 27, 43, 6, 40, 13, 8, 32, 3, 47, 16, 23, 5, 49, 2, 35, 41, 45, 36, 21, 37, 50, 7, 46, 24, 30, 14, 42, 12, 38, 19, 9, 4, 11, 18, 31, 15, 17, 10, 20, 34, 28, 26, 44, 22, 25]</t>
-  </si>
-  <si>
-    <t>[8, 12, 5, 20, 96, 75, 69, 43, 36, 19, 83, 39, 44, 86, 16, 10, 13, 50, 97, 100, 42, 99, 48, 90, 21, 26, 14, 74, 3, 55, 40, 27, 84, 70, 59, 80, 87, 47, 17, 53, 67, 45, 37, 15, 9, 68, 46, 22, 29, 34, 33, 49, 30, 31, 24, 71, 60, 72, 78, 89, 79, 66, 82, 32, 93, 41, 11, 25, 28, 91, 76, 56, 4, 85, 35, 63, 1, 7, 62, 98, 73, 61, 57, 95, 18, 58, 81, 23, 88, 51, 6, 94, 38, 92, 54, 2, 52, 65, 64, 77]</t>
-  </si>
-  <si>
-    <t>[43, 41, 27, 57, 8, 54, 15, 63, 11, 67, 2, 51, 84, 58, 22, 10, 66, 44, 60, 69, 93, 68, 38, 62, 45, 47, 91, 92, 86, 85, 28, 5, 65, 74, 37, 13, 76, 78, 29, 25, 31, 33, 82, 97, 61, 48, 95, 39, 56, 99, 71, 40, 53, 49, 32, 90, 6, 96, 100, 35, 42, 16, 46, 55, 80, 81, 83, 24, 3, 64, 94, 18, 26, 52, 21, 70, 14, 36, 34, 73, 77, 7, 17, 75, 98, 72, 20, 30, 23, 4, 59, 9, 79, 87, 1, 88, 89, 50, 12, 19]</t>
-  </si>
-  <si>
-    <t>[59, 89, 31, 49, 82, 39, 22, 72, 6, 60, 20, 54, 26, 7, 35, 37, 16, 21, 78, 92, 44, 42, 85, 81, 9, 70, 2, 28, 58, 25, 13, 57, 24, 15, 93, 46, 10, 99, 95, 67, 96, 3, 8, 61, 91, 77, 87, 66, 1, 11, 100, 40, 98, 86, 88, 43, 27, 74, 48, 23, 33, 83, 14, 75, 12, 47, 84, 34, 97, 52, 55, 63, 71, 30, 41, 36, 68, 19, 79, 38, 18, 69, 94, 62, 80, 5, 51, 32, 50, 65, 45, 76, 64, 90, 29, 4, 73, 56, 17, 53]</t>
-  </si>
-  <si>
-    <t>[42, 109, 102, 185, 1, 82, 181, 86, 5, 145, 98, 163, 137, 8, 13, 16, 150, 69, 63, 33, 43, 116, 188, 14, 83, 64, 170, 168, 92, 142, 124, 108, 48, 15, 11, 51, 191, 120, 197, 49, 53, 3, 12, 85, 131, 38, 182, 146, 36, 73, 186, 4, 115, 30, 97, 118, 195, 190, 24, 114, 57, 68, 91, 147, 165, 65, 25, 54, 76, 171, 198, 129, 107, 99, 193, 34, 67, 144, 40, 177, 74, 101, 184, 166, 52, 123, 39, 126, 81, 160, 148, 141, 78, 44, 21, 41, 152, 87, 100, 7, 162, 189, 103, 6, 173, 167, 56, 159, 80, 46, 96, 50, 35, 29, 117, 178, 58, 139, 154, 179, 32, 19, 20, 140, 106, 2, 151, 47, 136, 88, 71, 17, 187, 169, 155, 113, 172, 22, 133, 59, 90, 55, 94, 75, 37, 111, 60, 156, 61, 128, 26, 153, 192, 121, 77, 105, 110, 158, 125, 28, 127, 89, 132, 161, 62, 200, 122, 45, 149, 9, 176, 130, 196, 157, 164, 135, 79, 104, 134, 183, 138, 199, 174, 66, 194, 143, 27, 112, 95, 18, 72, 119, 70, 93, 10, 84, 31, 23, 180, 175]</t>
+    <t>[13, 9, 8, 15, 16, 7, 19, 18, 14, 4, 3, 17, 5, 20, 1, 11, 12, 2, 6, 10]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 9, 10, 14, 6, 15, 12, 8, 11, 13, 18, 19, 1, 20, 17, 7, 3, 16]</t>
+  </si>
+  <si>
+    <t>[18, 10, 15, 19, 4, 16, 3, 17, 12, 13, 6, 7, 14, 11, 5, 2, 20, 9, 1, 8]</t>
+  </si>
+  <si>
+    <t>[40, 21, 41, 34, 9, 42, 47, 29, 3, 18, 26, 39, 6, 10, 44, 13, 24, 38, 5, 22, 32, 46, 27, 45, 16, 35, 17, 28, 50, 15, 19, 36, 23, 30, 8, 31, 1, 4, 14, 25, 2, 49, 12, 7, 20, 43, 11, 48, 33, 37]</t>
+  </si>
+  <si>
+    <t>[25, 38, 39, 33, 3, 36, 24, 20, 15, 46, 34, 29, 8, 5, 2, 27, 44, 41, 23, 43, 17, 6, 18, 37, 7, 47, 14, 21, 30, 31, 13, 45, 32, 4, 48, 28, 10, 16, 26, 49, 35, 42, 11, 9, 40, 12, 1, 50, 22, 19]</t>
+  </si>
+  <si>
+    <t>[29, 39, 12, 10, 11, 17, 34, 24, 33, 18, 16, 37, 36, 4, 25, 8, 2, 6, 47, 42, 48, 49, 31, 20, 15, 1, 13, 45, 46, 5, 26, 30, 38, 43, 14, 19, 7, 32, 23, 22, 40, 21, 28, 50, 3, 35, 9, 41, 27, 44]</t>
+  </si>
+  <si>
+    <t>[41, 29, 58, 94, 52, 19, 48, 40, 15, 2, 8, 24, 7, 82, 12, 100, 95, 86, 64, 31, 43, 70, 76, 93, 46, 62, 83, 47, 91, 78, 73, 69, 44, 68, 32, 33, 35, 96, 39, 26, 81, 72, 60, 53, 99, 55, 90, 28, 42, 21, 50, 13, 59, 75, 37, 74, 3, 98, 11, 66, 87, 57, 51, 56, 27, 97, 18, 14, 25, 36, 5, 17, 20, 49, 6, 4, 85, 23, 65, 71, 38, 1, 9, 63, 92, 67, 89, 30, 45, 54, 16, 88, 34, 61, 80, 22, 79, 10, 77, 84]</t>
+  </si>
+  <si>
+    <t>[60, 96, 72, 51, 70, 49, 35, 52, 30, 43, 40, 25, 63, 34, 21, 37, 5, 88, 77, 20, 92, 31, 16, 39, 99, 59, 85, 57, 15, 56, 86, 65, 13, 4, 87, 80, 38, 90, 44, 41, 55, 68, 47, 23, 74, 48, 27, 71, 45, 54, 28, 22, 84, 97, 53, 67, 42, 66, 100, 98, 79, 89, 78, 94, 8, 26, 2, 32, 14, 7, 76, 24, 83, 62, 73, 10, 36, 93, 11, 95, 29, 18, 19, 64, 58, 9, 69, 17, 82, 91, 33, 46, 75, 61, 81, 3, 1, 6, 50, 12]</t>
+  </si>
+  <si>
+    <t>[77, 78, 47, 10, 71, 62, 68, 79, 51, 81, 24, 74, 5, 52, 83, 14, 66, 55, 48, 2, 88, 36, 31, 25, 65, 82, 20, 72, 9, 56, 34, 22, 4, 63, 85, 19, 42, 90, 3, 15, 21, 80, 17, 37, 75, 57, 44, 94, 8, 70, 18, 43, 100, 59, 11, 76, 12, 87, 92, 1, 32, 40, 60, 27, 93, 28, 53, 84, 50, 64, 67, 46, 61, 97, 33, 58, 98, 73, 38, 99, 26, 96, 86, 54, 13, 16, 7, 89, 49, 39, 35, 91, 41, 45, 95, 30, 69, 29, 23, 6]</t>
+  </si>
+  <si>
+    <t>[166, 167, 141, 103, 150, 162, 36, 71, 37, 62, 28, 128, 187, 55, 101, 45, 11, 146, 163, 158, 59, 191, 16, 20, 56, 90, 95, 31, 153, 32, 193, 198, 75, 170, 115, 98, 74, 132, 178, 147, 72, 142, 140, 10, 106, 53, 26, 174, 1, 190, 54, 152, 23, 171, 131, 114, 80, 13, 22, 57, 25, 4, 173, 160, 21, 81, 66, 107, 88, 86, 87, 70, 120, 118, 159, 43, 188, 97, 8, 40, 102, 46, 24, 61, 69, 52, 100, 96, 63, 175, 181, 182, 35, 135, 138, 172, 64, 143, 155, 77, 58, 111, 199, 183, 94, 60, 108, 76, 12, 156, 67, 83, 129, 149, 117, 9, 82, 85, 17, 84, 29, 197, 168, 194, 91, 176, 38, 184, 130, 139, 104, 47, 200, 134, 113, 122, 127, 186, 79, 30, 137, 42, 119, 34, 73, 14, 48, 41, 99, 124, 161, 3, 89, 27, 151, 5, 44, 126, 133, 125, 136, 65, 39, 179, 145, 144, 196, 93, 195, 116, 2, 189, 6, 157, 51, 92, 19, 33, 164, 7, 50, 105, 180, 110, 154, 192, 18, 109, 169, 185, 177, 68, 165, 78, 112, 148, 15, 49, 123, 121]</t>
   </si>
 </sst>
 </file>
@@ -513,34 +513,34 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1368</v>
+        <v>1345</v>
       </c>
       <c r="F2">
-        <v>1440</v>
+        <v>1363</v>
       </c>
       <c r="G2">
-        <v>1398.4</v>
+        <v>1352.9</v>
       </c>
       <c r="H2">
-        <v>19.8454</v>
+        <v>5.50364</v>
       </c>
       <c r="I2">
-        <v>0.00127</v>
+        <v>0.03136</v>
       </c>
       <c r="J2">
-        <v>0.00469</v>
+        <v>0.06516</v>
       </c>
       <c r="K2">
-        <v>0.00215</v>
+        <v>0.04504</v>
       </c>
       <c r="L2">
-        <v>0.0009700000000000001</v>
+        <v>0.01115</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -551,34 +551,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1832</v>
+        <v>1724</v>
       </c>
       <c r="F3">
-        <v>1912</v>
+        <v>1831</v>
       </c>
       <c r="G3">
-        <v>1861.9</v>
+        <v>1789.1</v>
       </c>
       <c r="H3">
-        <v>26.51962</v>
+        <v>35.01271</v>
       </c>
       <c r="I3">
-        <v>0.0019</v>
+        <v>0.04277</v>
       </c>
       <c r="J3">
-        <v>0.00478</v>
+        <v>0.11917</v>
       </c>
       <c r="K3">
-        <v>0.0028</v>
+        <v>0.06345000000000001</v>
       </c>
       <c r="L3">
-        <v>0.00088</v>
+        <v>0.02769</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,34 +589,34 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2521</v>
+        <v>2485</v>
       </c>
       <c r="F4">
-        <v>2651</v>
+        <v>2551</v>
       </c>
       <c r="G4">
-        <v>2587.2</v>
+        <v>2520.1</v>
       </c>
       <c r="H4">
-        <v>38.28786</v>
+        <v>19.12302</v>
       </c>
       <c r="I4">
-        <v>0.00319</v>
+        <v>0.07673000000000001</v>
       </c>
       <c r="J4">
-        <v>0.0097</v>
+        <v>0.25332</v>
       </c>
       <c r="K4">
-        <v>0.00473</v>
+        <v>0.13592</v>
       </c>
       <c r="L4">
-        <v>0.00232</v>
+        <v>0.04646</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,34 +627,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2881</v>
+        <v>2776</v>
       </c>
       <c r="F5">
-        <v>3027</v>
+        <v>2897</v>
       </c>
       <c r="G5">
-        <v>2951.4</v>
+        <v>2866.5</v>
       </c>
       <c r="H5">
-        <v>53.05884</v>
+        <v>33.04013</v>
       </c>
       <c r="I5">
-        <v>0.00247</v>
+        <v>0.05807</v>
       </c>
       <c r="J5">
-        <v>0.00499</v>
+        <v>0.1753</v>
       </c>
       <c r="K5">
-        <v>0.00376</v>
+        <v>0.09384000000000001</v>
       </c>
       <c r="L5">
-        <v>0.00084</v>
+        <v>0.03528</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -665,34 +665,34 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3546</v>
+        <v>3448</v>
       </c>
       <c r="F6">
-        <v>3675</v>
+        <v>3562</v>
       </c>
       <c r="G6">
-        <v>3594.2</v>
+        <v>3509.1</v>
       </c>
       <c r="H6">
-        <v>38.72415</v>
+        <v>37.99066</v>
       </c>
       <c r="I6">
-        <v>0.00412</v>
+        <v>0.09656000000000001</v>
       </c>
       <c r="J6">
-        <v>0.01001</v>
+        <v>0.17324</v>
       </c>
       <c r="K6">
-        <v>0.0064</v>
+        <v>0.12051</v>
       </c>
       <c r="L6">
-        <v>0.00202</v>
+        <v>0.02733</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -703,34 +703,34 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>4590</v>
+        <v>4488</v>
       </c>
       <c r="F7">
-        <v>4754</v>
+        <v>4582</v>
       </c>
       <c r="G7">
-        <v>4670.2</v>
+        <v>4527.9</v>
       </c>
       <c r="H7">
-        <v>50.90737</v>
+        <v>25.35133</v>
       </c>
       <c r="I7">
-        <v>0.0075</v>
+        <v>0.17663</v>
       </c>
       <c r="J7">
-        <v>0.01626</v>
+        <v>0.6521400000000001</v>
       </c>
       <c r="K7">
-        <v>0.01163</v>
+        <v>0.33537</v>
       </c>
       <c r="L7">
-        <v>0.00298</v>
+        <v>0.16926</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -741,34 +741,34 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>5760</v>
+        <v>5716</v>
       </c>
       <c r="F8">
-        <v>5945</v>
+        <v>5804</v>
       </c>
       <c r="G8">
-        <v>5841.7</v>
+        <v>5748.6</v>
       </c>
       <c r="H8">
-        <v>52.65178</v>
+        <v>21.84125</v>
       </c>
       <c r="I8">
-        <v>0.00457</v>
+        <v>0.11195</v>
       </c>
       <c r="J8">
-        <v>0.01185</v>
+        <v>0.24597</v>
       </c>
       <c r="K8">
-        <v>0.00779</v>
+        <v>0.1556</v>
       </c>
       <c r="L8">
-        <v>0.0023</v>
+        <v>0.04549</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -779,34 +779,34 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>6454</v>
+        <v>6448</v>
       </c>
       <c r="F9">
-        <v>6738</v>
+        <v>6559</v>
       </c>
       <c r="G9">
-        <v>6607.5</v>
+        <v>6502.2</v>
       </c>
       <c r="H9">
-        <v>76.5</v>
+        <v>35.72618</v>
       </c>
       <c r="I9">
-        <v>0.0075</v>
+        <v>0.18639</v>
       </c>
       <c r="J9">
-        <v>0.01886</v>
+        <v>0.44668</v>
       </c>
       <c r="K9">
-        <v>0.01088</v>
+        <v>0.28346</v>
       </c>
       <c r="L9">
-        <v>0.00396</v>
+        <v>0.08439000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -817,34 +817,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10">
-        <v>7406</v>
+        <v>7237</v>
       </c>
       <c r="F10">
-        <v>7639</v>
+        <v>7407</v>
       </c>
       <c r="G10">
-        <v>7529.5</v>
+        <v>7358.7</v>
       </c>
       <c r="H10">
-        <v>71.51678</v>
+        <v>47.74317</v>
       </c>
       <c r="I10">
-        <v>0.01387</v>
+        <v>0.3319</v>
       </c>
       <c r="J10">
-        <v>0.03966</v>
+        <v>0.66862</v>
       </c>
       <c r="K10">
-        <v>0.02362</v>
+        <v>0.51539</v>
       </c>
       <c r="L10">
-        <v>0.00928</v>
+        <v>0.11347</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -855,34 +855,34 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11">
-        <v>11759</v>
+        <v>11605</v>
       </c>
       <c r="F11">
-        <v>12058</v>
+        <v>11799</v>
       </c>
       <c r="G11">
-        <v>11902.3</v>
+        <v>11730.2</v>
       </c>
       <c r="H11">
-        <v>101.81066</v>
+        <v>56.2402</v>
       </c>
       <c r="I11">
-        <v>0.01733</v>
+        <v>0.36117</v>
       </c>
       <c r="J11">
-        <v>0.04662</v>
+        <v>0.86104</v>
       </c>
       <c r="K11">
-        <v>0.02558</v>
+        <v>0.5248</v>
       </c>
       <c r="L11">
-        <v>0.00873</v>
+        <v>0.14424</v>
       </c>
     </row>
   </sheetData>
